--- a/安排190325-0852.xlsx
+++ b/安排190325-0852.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3A8CFF-0302-4891-AF88-650186E2CF33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B58A74-FB2C-4E28-A16D-021AF6565671}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>未定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +174,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +200,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,8 +229,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -217,8 +275,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,10 +293,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,11 +619,11 @@
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -748,13 +823,49 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/安排190325-0852.xlsx
+++ b/安排190325-0852.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B58A74-FB2C-4E28-A16D-021AF6565671}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C9E47-44D9-4726-AE16-F9CCE4E67697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="28">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>张承扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张琪、杨楚瀛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -290,9 +286,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,6 +297,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,14 +612,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -632,12 +628,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -658,7 +654,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -674,7 +670,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -688,7 +684,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -702,7 +698,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -716,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -730,12 +726,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -744,7 +740,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,114 +750,138 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A5:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/安排190325-0852.xlsx
+++ b/安排190325-0852.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C9E47-44D9-4726-AE16-F9CCE4E67697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830854-998F-481E-97E5-013049388728}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -290,6 +290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,9 +300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +588,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -628,7 +628,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -712,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -722,11 +722,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -740,7 +740,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -762,7 +762,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -770,7 +770,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="5"/>
@@ -854,7 +854,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -862,7 +862,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -870,7 +870,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>

--- a/安排190325-0852.xlsx
+++ b/安排190325-0852.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830854-998F-481E-97E5-013049388728}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C06C60-CFDA-4A7C-B40E-779401E71AB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -132,6 +132,22 @@
   </si>
   <si>
     <t>附加项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双路快排</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三路快排</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,11 +673,11 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -671,22 +687,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -694,27 +710,27 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -727,161 +743,203 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A5:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
